--- a/Meesho(App).xlsx
+++ b/Meesho(App).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syedt\Documents\SQA\Class-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SQA\Class-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F2B6FE-BFA1-40DE-A154-292CA0DD1966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
   <definedNames>
     <definedName name="Remember_Me_checkbox_error">TestCase!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,14 +41,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="283">
   <si>
     <t>Test Case Report</t>
   </si>
@@ -996,20 +995,6 @@
   </si>
   <si>
     <r>
-      <t>Actual: L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ast information is partially hidden</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Env:</t>
     </r>
     <r>
@@ -1191,11 +1176,25 @@
   <si>
     <t>(4/20)*100 = 20</t>
   </si>
+  <si>
+    <r>
+      <t>Actual: L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ast portion information is partially hidden</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="62">
     <font>
       <sz val="10"/>
@@ -2635,103 +2634,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="57" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="59" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="42" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2748,6 +2650,103 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2893,7 +2892,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2954,7 +2953,7 @@
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-7DB5-46F0-B3C9-D40F13243FF8}"/>
               </c:ext>
@@ -2971,7 +2970,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-7DB5-46F0-B3C9-D40F13243FF8}"/>
               </c:ext>
@@ -2988,7 +2987,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-7DB5-46F0-B3C9-D40F13243FF8}"/>
               </c:ext>
@@ -3005,7 +3004,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-7DB5-46F0-B3C9-D40F13243FF8}"/>
               </c:ext>
@@ -3040,11 +3039,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-7DB5-46F0-B3C9-D40F13243FF8}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3075,11 +3074,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-7DB5-46F0-B3C9-D40F13243FF8}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3110,11 +3109,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-7DB5-46F0-B3C9-D40F13243FF8}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3145,11 +3144,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-7DB5-46F0-B3C9-D40F13243FF8}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3182,7 +3181,7 @@
             <c:separator>
 </c:separator>
             <c:showLeaderLines val="1"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -3227,7 +3226,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-7DB5-46F0-B3C9-D40F13243FF8}"/>
             </c:ext>
@@ -3335,7 +3334,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E158B51-1F03-9C91-8B18-02CEF549E86B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E158B51-1F03-9C91-8B18-02CEF549E86B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3420,7 +3419,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3737,17 +3736,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C42"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="40.77734375" customWidth="1"/>
-    <col min="3" max="3" width="180.77734375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="180.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="36.6" customHeight="1">
@@ -3766,7 +3765,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="53.4" customHeight="1" thickBot="1">
+    <row r="4" spans="2:3" ht="53.45" customHeight="1" thickBot="1">
       <c r="B4" s="65" t="s">
         <v>169</v>
       </c>
@@ -3774,34 +3773,34 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="22.2" customHeight="1">
-      <c r="B5" s="161" t="s">
+    <row r="5" spans="2:3" ht="22.15" customHeight="1">
+      <c r="B5" s="170" t="s">
         <v>171</v>
       </c>
       <c r="C5" s="67" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="20.399999999999999" customHeight="1">
-      <c r="B6" s="162"/>
+    <row r="6" spans="2:3" ht="20.45" customHeight="1">
+      <c r="B6" s="171"/>
       <c r="C6" s="68" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="20.399999999999999" customHeight="1">
-      <c r="B7" s="162"/>
+    <row r="7" spans="2:3" ht="20.45" customHeight="1">
+      <c r="B7" s="171"/>
       <c r="C7" s="68" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="21.6" customHeight="1">
-      <c r="B8" s="162"/>
+      <c r="B8" s="171"/>
       <c r="C8" s="68" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="22.2" customHeight="1" thickBot="1">
-      <c r="B9" s="163"/>
+    <row r="9" spans="2:3" ht="22.15" customHeight="1" thickBot="1">
+      <c r="B9" s="172"/>
       <c r="C9" s="69" t="s">
         <v>176</v>
       </c>
@@ -3814,53 +3813,53 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="17.399999999999999">
-      <c r="B11" s="161" t="s">
+    <row r="11" spans="2:3" ht="17.25">
+      <c r="B11" s="170" t="s">
         <v>179</v>
       </c>
       <c r="C11" s="70" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="22.2" customHeight="1">
-      <c r="B12" s="162"/>
+    <row r="12" spans="2:3" ht="22.15" customHeight="1">
+      <c r="B12" s="171"/>
       <c r="C12" s="68" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="19.8" customHeight="1">
-      <c r="B13" s="162"/>
+    <row r="13" spans="2:3" ht="19.899999999999999" customHeight="1">
+      <c r="B13" s="171"/>
       <c r="C13" s="68" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="20.399999999999999" customHeight="1">
-      <c r="B14" s="162"/>
+    <row r="14" spans="2:3" ht="20.45" customHeight="1">
+      <c r="B14" s="171"/>
       <c r="C14" s="68" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="23.4" customHeight="1" thickBot="1">
-      <c r="B15" s="163"/>
+    <row r="15" spans="2:3" ht="23.45" customHeight="1" thickBot="1">
+      <c r="B15" s="172"/>
       <c r="C15" s="69" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="26.4" customHeight="1">
-      <c r="B16" s="161" t="s">
+    <row r="16" spans="2:3" ht="26.45" customHeight="1">
+      <c r="B16" s="170" t="s">
         <v>185</v>
       </c>
       <c r="C16" s="70" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="25.2" customHeight="1" thickBot="1">
-      <c r="B17" s="163"/>
+    <row r="17" spans="2:3" ht="25.15" customHeight="1" thickBot="1">
+      <c r="B17" s="172"/>
       <c r="C17" s="69" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="25.2" customHeight="1" thickBot="1">
+    <row r="18" spans="2:3" ht="25.15" customHeight="1" thickBot="1">
       <c r="B18" s="65" t="s">
         <v>188</v>
       </c>
@@ -3876,7 +3875,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="25.8" customHeight="1" thickBot="1">
+    <row r="20" spans="2:3" ht="25.9" customHeight="1" thickBot="1">
       <c r="B20" s="65" t="s">
         <v>192</v>
       </c>
@@ -3884,28 +3883,28 @@
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="17.399999999999999" customHeight="1">
-      <c r="B21" s="161" t="s">
+    <row r="21" spans="2:3" ht="17.45" customHeight="1">
+      <c r="B21" s="170" t="s">
         <v>194</v>
       </c>
       <c r="C21" s="71" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="14.4" customHeight="1">
-      <c r="B22" s="162"/>
+    <row r="22" spans="2:3" ht="14.45" customHeight="1">
+      <c r="B22" s="171"/>
       <c r="C22" s="68" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="18" thickBot="1">
-      <c r="B23" s="163"/>
+      <c r="B23" s="172"/>
       <c r="C23" s="69" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="17.399999999999999">
-      <c r="B24" s="161" t="s">
+    <row r="24" spans="2:3" ht="17.25">
+      <c r="B24" s="170" t="s">
         <v>197</v>
       </c>
       <c r="C24" s="67" t="s">
@@ -3913,19 +3912,19 @@
       </c>
     </row>
     <row r="25" spans="2:3" ht="18.600000000000001" customHeight="1">
-      <c r="B25" s="162"/>
+      <c r="B25" s="171"/>
       <c r="C25" s="72" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="B26" s="163"/>
+    <row r="26" spans="2:3" ht="17.45" customHeight="1" thickBot="1">
+      <c r="B26" s="172"/>
       <c r="C26" s="73" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="24" customHeight="1">
-      <c r="B27" s="161" t="s">
+      <c r="B27" s="170" t="s">
         <v>201</v>
       </c>
       <c r="C27" s="70" t="s">
@@ -3933,12 +3932,12 @@
       </c>
     </row>
     <row r="28" spans="2:3" ht="21.6" customHeight="1" thickBot="1">
-      <c r="B28" s="163"/>
+      <c r="B28" s="172"/>
       <c r="C28" s="69" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="25.2" customHeight="1" thickBot="1">
+    <row r="29" spans="2:3" ht="25.15" customHeight="1" thickBot="1">
       <c r="B29" s="65" t="s">
         <v>204</v>
       </c>
@@ -3946,8 +3945,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="22.8" customHeight="1">
-      <c r="B30" s="161" t="s">
+    <row r="30" spans="2:3" ht="22.9" customHeight="1">
+      <c r="B30" s="170" t="s">
         <v>206</v>
       </c>
       <c r="C30" s="74" t="s">
@@ -3955,57 +3954,57 @@
       </c>
     </row>
     <row r="31" spans="2:3" ht="24.6" customHeight="1">
-      <c r="B31" s="162"/>
+      <c r="B31" s="171"/>
       <c r="C31" s="75" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="24.6" customHeight="1" thickBot="1">
-      <c r="B32" s="163"/>
+      <c r="B32" s="172"/>
       <c r="C32" s="76" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.6">
-      <c r="B33" s="161" t="s">
+    <row r="33" spans="2:3" ht="15.75">
+      <c r="B33" s="170" t="s">
         <v>210</v>
       </c>
       <c r="C33" s="74" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="22.2" customHeight="1">
-      <c r="B34" s="162"/>
+    <row r="34" spans="2:3" ht="22.15" customHeight="1">
+      <c r="B34" s="171"/>
       <c r="C34" s="75" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.6">
-      <c r="B35" s="162"/>
+    <row r="35" spans="2:3" ht="15.75">
+      <c r="B35" s="171"/>
       <c r="C35" s="75" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="15.6">
-      <c r="B36" s="162"/>
+    <row r="36" spans="2:3" ht="15.75">
+      <c r="B36" s="171"/>
       <c r="C36" s="75" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="15.6">
-      <c r="B37" s="162"/>
+    <row r="37" spans="2:3" ht="15.75">
+      <c r="B37" s="171"/>
       <c r="C37" s="75" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="16.2" customHeight="1" thickBot="1">
-      <c r="B38" s="163"/>
+    <row r="38" spans="2:3" ht="16.149999999999999" customHeight="1" thickBot="1">
+      <c r="B38" s="172"/>
       <c r="C38" s="76" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="29.4" customHeight="1">
-      <c r="B39" s="161" t="s">
+    <row r="39" spans="2:3" ht="29.45" customHeight="1">
+      <c r="B39" s="170" t="s">
         <v>211</v>
       </c>
       <c r="C39" s="67" t="s">
@@ -4013,13 +4012,13 @@
       </c>
     </row>
     <row r="40" spans="2:3" ht="21" customHeight="1">
-      <c r="B40" s="162"/>
+      <c r="B40" s="171"/>
       <c r="C40" s="72" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="25.2" customHeight="1" thickBot="1">
-      <c r="B41" s="163"/>
+    <row r="41" spans="2:3" ht="25.15" customHeight="1" thickBot="1">
+      <c r="B41" s="172"/>
       <c r="C41" s="73" t="s">
         <v>214</v>
       </c>
@@ -4054,14 +4053,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4070,66 +4069,66 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z251"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="35.88671875" customWidth="1"/>
-    <col min="8" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="40.6640625" customWidth="1"/>
-    <col min="13" max="13" width="28.109375" customWidth="1"/>
-    <col min="14" max="14" width="21.33203125" customWidth="1"/>
-    <col min="15" max="15" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" customWidth="1"/>
+    <col min="8" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="40.7109375" customWidth="1"/>
+    <col min="13" max="13" width="28.140625" customWidth="1"/>
+    <col min="14" max="14" width="21.28515625" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" customWidth="1"/>
     <col min="16" max="16" width="25" customWidth="1"/>
-    <col min="17" max="18" width="14.33203125" customWidth="1"/>
+    <col min="17" max="18" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="3" spans="1:26" ht="8.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
-      <c r="B4" s="176" t="s">
+      <c r="B4" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="181" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="172" t="s">
-        <v>275</v>
-      </c>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
+      <c r="C6" s="181" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="181"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="181"/>
       <c r="I6" s="5" t="s">
         <v>3</v>
       </c>
@@ -4144,11 +4143,11 @@
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="172"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="172"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
       <c r="I7" s="7">
         <f>C15</f>
         <v>16</v>
@@ -4163,13 +4162,13 @@
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="172" t="s">
+      <c r="C8" s="181" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="172"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="172"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="181"/>
       <c r="I8" s="7">
         <f>D15</f>
         <v>4</v>
@@ -4184,13 +4183,13 @@
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="172" t="s">
+      <c r="C9" s="181" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="181"/>
       <c r="I9" s="7">
         <f>E15</f>
         <v>0</v>
@@ -4208,7 +4207,7 @@
         <v>14</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P9" s="12"/>
     </row>
@@ -4216,13 +4215,13 @@
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="172" t="s">
+      <c r="C10" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="172"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="172"/>
-      <c r="G10" s="172"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
       <c r="I10" s="7">
         <f>F15</f>
         <v>0</v>
@@ -4237,22 +4236,22 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B11" s="173" t="s">
+      <c r="B11" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="173"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="173"/>
-      <c r="F11" s="173"/>
-      <c r="G11" s="173"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B12" s="173"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="173"/>
+      <c r="B12" s="182"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="182"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="B13" s="13" t="s">
@@ -4324,7 +4323,7 @@
       <c r="Y14" s="17"/>
       <c r="Z14" s="17"/>
     </row>
-    <row r="15" spans="1:26" ht="18">
+    <row r="15" spans="1:26" ht="18.75">
       <c r="B15" s="25" t="s">
         <v>22</v>
       </c>
@@ -4387,21 +4386,21 @@
       <c r="R17" s="16"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B18" s="174" t="s">
+      <c r="B18" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="174"/>
-      <c r="D18" s="174"/>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
+      <c r="C18" s="183"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B19" s="175" t="s">
+      <c r="B19" s="184" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="175"/>
-      <c r="D19" s="175"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="184"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
         <v>25</v>
@@ -4411,11 +4410,11 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B20" s="168" t="s">
+      <c r="B20" s="177" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="168"/>
-      <c r="D20" s="168"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="177"/>
       <c r="E20" s="31"/>
       <c r="F20" s="31" t="s">
         <v>28</v>
@@ -4425,11 +4424,11 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B21" s="168" t="s">
+      <c r="B21" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="168"/>
-      <c r="D21" s="168"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="177"/>
       <c r="E21" s="31"/>
       <c r="F21" s="31" t="s">
         <v>28</v>
@@ -4440,306 +4439,306 @@
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1"/>
     <row r="23" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B23" s="169"/>
-      <c r="C23" s="170" t="s">
+      <c r="B23" s="178"/>
+      <c r="C23" s="179" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="171" t="s">
+      <c r="D23" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="171"/>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="180"/>
     </row>
     <row r="24" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B24" s="169"/>
-      <c r="C24" s="169"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
+      <c r="B24" s="178"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="180"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="180"/>
+      <c r="G24" s="180"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B25" s="169"/>
-      <c r="C25" s="169"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
+      <c r="B25" s="178"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="180"/>
+      <c r="E25" s="180"/>
+      <c r="F25" s="180"/>
+      <c r="G25" s="180"/>
     </row>
     <row r="26" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B26" s="169"/>
-      <c r="C26" s="169"/>
-      <c r="D26" s="171"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
+      <c r="B26" s="178"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="180"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="180"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B27" s="164" t="s">
+      <c r="B27" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="167" t="s">
+      <c r="C27" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="166" t="s">
+      <c r="D27" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="166"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="166"/>
+      <c r="E27" s="175"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="175"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B28" s="164"/>
-      <c r="C28" s="164"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
+      <c r="B28" s="173"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="175"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="175"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B29" s="164"/>
-      <c r="C29" s="164"/>
-      <c r="D29" s="166"/>
-      <c r="E29" s="166"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="166"/>
+      <c r="B29" s="173"/>
+      <c r="C29" s="173"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="175"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="175"/>
     </row>
     <row r="30" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B30" s="164"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="166"/>
-      <c r="E30" s="166"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="166"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="175"/>
     </row>
     <row r="31" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B31" s="164" t="s">
+      <c r="B31" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="167" t="s">
+      <c r="C31" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="166" t="s">
+      <c r="D31" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="166"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="166"/>
+      <c r="E31" s="175"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="175"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B32" s="164"/>
-      <c r="C32" s="164"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
+      <c r="B32" s="173"/>
+      <c r="C32" s="173"/>
+      <c r="D32" s="175"/>
+      <c r="E32" s="175"/>
+      <c r="F32" s="175"/>
+      <c r="G32" s="175"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B33" s="164"/>
-      <c r="C33" s="164"/>
-      <c r="D33" s="166"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="166"/>
+      <c r="B33" s="173"/>
+      <c r="C33" s="173"/>
+      <c r="D33" s="175"/>
+      <c r="E33" s="175"/>
+      <c r="F33" s="175"/>
+      <c r="G33" s="175"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B34" s="164"/>
-      <c r="C34" s="164"/>
-      <c r="D34" s="166"/>
-      <c r="E34" s="166"/>
-      <c r="F34" s="166"/>
-      <c r="G34" s="166"/>
+      <c r="B34" s="173"/>
+      <c r="C34" s="173"/>
+      <c r="D34" s="175"/>
+      <c r="E34" s="175"/>
+      <c r="F34" s="175"/>
+      <c r="G34" s="175"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B35" s="164" t="s">
+      <c r="B35" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="167" t="s">
+      <c r="C35" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="166" t="s">
+      <c r="D35" s="175" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="166"/>
-      <c r="F35" s="166"/>
-      <c r="G35" s="166"/>
+      <c r="E35" s="175"/>
+      <c r="F35" s="175"/>
+      <c r="G35" s="175"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="164"/>
-      <c r="C36" s="164"/>
-      <c r="D36" s="166"/>
-      <c r="E36" s="166"/>
-      <c r="F36" s="166"/>
-      <c r="G36" s="166"/>
+      <c r="B36" s="173"/>
+      <c r="C36" s="173"/>
+      <c r="D36" s="175"/>
+      <c r="E36" s="175"/>
+      <c r="F36" s="175"/>
+      <c r="G36" s="175"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B37" s="164"/>
-      <c r="C37" s="164"/>
-      <c r="D37" s="166"/>
-      <c r="E37" s="166"/>
-      <c r="F37" s="166"/>
-      <c r="G37" s="166"/>
+      <c r="B37" s="173"/>
+      <c r="C37" s="173"/>
+      <c r="D37" s="175"/>
+      <c r="E37" s="175"/>
+      <c r="F37" s="175"/>
+      <c r="G37" s="175"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B38" s="164"/>
-      <c r="C38" s="164"/>
-      <c r="D38" s="166"/>
-      <c r="E38" s="166"/>
-      <c r="F38" s="166"/>
-      <c r="G38" s="166"/>
+      <c r="B38" s="173"/>
+      <c r="C38" s="173"/>
+      <c r="D38" s="175"/>
+      <c r="E38" s="175"/>
+      <c r="F38" s="175"/>
+      <c r="G38" s="175"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B39" s="164" t="s">
+      <c r="B39" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="167" t="s">
+      <c r="C39" s="176" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="166" t="s">
+      <c r="D39" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="166"/>
-      <c r="F39" s="166"/>
-      <c r="G39" s="166"/>
+      <c r="E39" s="175"/>
+      <c r="F39" s="175"/>
+      <c r="G39" s="175"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="164"/>
-      <c r="C40" s="164"/>
-      <c r="D40" s="166"/>
-      <c r="E40" s="166"/>
-      <c r="F40" s="166"/>
-      <c r="G40" s="166"/>
+      <c r="B40" s="173"/>
+      <c r="C40" s="173"/>
+      <c r="D40" s="175"/>
+      <c r="E40" s="175"/>
+      <c r="F40" s="175"/>
+      <c r="G40" s="175"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B41" s="164"/>
-      <c r="C41" s="164"/>
-      <c r="D41" s="166"/>
-      <c r="E41" s="166"/>
-      <c r="F41" s="166"/>
-      <c r="G41" s="166"/>
+      <c r="B41" s="173"/>
+      <c r="C41" s="173"/>
+      <c r="D41" s="175"/>
+      <c r="E41" s="175"/>
+      <c r="F41" s="175"/>
+      <c r="G41" s="175"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B42" s="164"/>
-      <c r="C42" s="164"/>
-      <c r="D42" s="166"/>
-      <c r="E42" s="166"/>
-      <c r="F42" s="166"/>
-      <c r="G42" s="166"/>
+      <c r="B42" s="173"/>
+      <c r="C42" s="173"/>
+      <c r="D42" s="175"/>
+      <c r="E42" s="175"/>
+      <c r="F42" s="175"/>
+      <c r="G42" s="175"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B43" s="164" t="s">
+      <c r="B43" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="165" t="s">
+      <c r="C43" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="166" t="s">
+      <c r="D43" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="166"/>
-      <c r="F43" s="166"/>
-      <c r="G43" s="166"/>
+      <c r="E43" s="175"/>
+      <c r="F43" s="175"/>
+      <c r="G43" s="175"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="164"/>
-      <c r="C44" s="164"/>
-      <c r="D44" s="166"/>
-      <c r="E44" s="166"/>
-      <c r="F44" s="166"/>
-      <c r="G44" s="166"/>
+      <c r="B44" s="173"/>
+      <c r="C44" s="173"/>
+      <c r="D44" s="175"/>
+      <c r="E44" s="175"/>
+      <c r="F44" s="175"/>
+      <c r="G44" s="175"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B45" s="164"/>
-      <c r="C45" s="164"/>
-      <c r="D45" s="166"/>
-      <c r="E45" s="166"/>
-      <c r="F45" s="166"/>
-      <c r="G45" s="166"/>
-    </row>
-    <row r="46" spans="2:7" ht="37.200000000000003" customHeight="1">
-      <c r="B46" s="164"/>
-      <c r="C46" s="164"/>
-      <c r="D46" s="166"/>
-      <c r="E46" s="166"/>
-      <c r="F46" s="166"/>
-      <c r="G46" s="166"/>
+      <c r="B45" s="173"/>
+      <c r="C45" s="173"/>
+      <c r="D45" s="175"/>
+      <c r="E45" s="175"/>
+      <c r="F45" s="175"/>
+      <c r="G45" s="175"/>
+    </row>
+    <row r="46" spans="2:7" ht="37.15" customHeight="1">
+      <c r="B46" s="173"/>
+      <c r="C46" s="173"/>
+      <c r="D46" s="175"/>
+      <c r="E46" s="175"/>
+      <c r="F46" s="175"/>
+      <c r="G46" s="175"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B47" s="164" t="s">
+      <c r="B47" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="165" t="s">
+      <c r="C47" s="174" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="166" t="s">
+      <c r="D47" s="175" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="166"/>
-      <c r="F47" s="166"/>
-      <c r="G47" s="166"/>
+      <c r="E47" s="175"/>
+      <c r="F47" s="175"/>
+      <c r="G47" s="175"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B48" s="164"/>
-      <c r="C48" s="164"/>
-      <c r="D48" s="166"/>
-      <c r="E48" s="166"/>
-      <c r="F48" s="166"/>
-      <c r="G48" s="166"/>
+      <c r="B48" s="173"/>
+      <c r="C48" s="173"/>
+      <c r="D48" s="175"/>
+      <c r="E48" s="175"/>
+      <c r="F48" s="175"/>
+      <c r="G48" s="175"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B49" s="164"/>
-      <c r="C49" s="164"/>
-      <c r="D49" s="166"/>
-      <c r="E49" s="166"/>
-      <c r="F49" s="166"/>
-      <c r="G49" s="166"/>
+      <c r="B49" s="173"/>
+      <c r="C49" s="173"/>
+      <c r="D49" s="175"/>
+      <c r="E49" s="175"/>
+      <c r="F49" s="175"/>
+      <c r="G49" s="175"/>
     </row>
     <row r="50" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B50" s="164"/>
-      <c r="C50" s="164"/>
-      <c r="D50" s="166"/>
-      <c r="E50" s="166"/>
-      <c r="F50" s="166"/>
-      <c r="G50" s="166"/>
+      <c r="B50" s="173"/>
+      <c r="C50" s="173"/>
+      <c r="D50" s="175"/>
+      <c r="E50" s="175"/>
+      <c r="F50" s="175"/>
+      <c r="G50" s="175"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B51" s="164" t="s">
+      <c r="B51" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="165" t="s">
+      <c r="C51" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="166" t="s">
+      <c r="D51" s="175" t="s">
         <v>222</v>
       </c>
-      <c r="E51" s="166"/>
-      <c r="F51" s="166"/>
-      <c r="G51" s="166"/>
+      <c r="E51" s="175"/>
+      <c r="F51" s="175"/>
+      <c r="G51" s="175"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B52" s="164"/>
-      <c r="C52" s="164"/>
-      <c r="D52" s="166"/>
-      <c r="E52" s="166"/>
-      <c r="F52" s="166"/>
-      <c r="G52" s="166"/>
+      <c r="B52" s="173"/>
+      <c r="C52" s="173"/>
+      <c r="D52" s="175"/>
+      <c r="E52" s="175"/>
+      <c r="F52" s="175"/>
+      <c r="G52" s="175"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B53" s="164"/>
-      <c r="C53" s="164"/>
-      <c r="D53" s="166"/>
-      <c r="E53" s="166"/>
-      <c r="F53" s="166"/>
-      <c r="G53" s="166"/>
+      <c r="B53" s="173"/>
+      <c r="C53" s="173"/>
+      <c r="D53" s="175"/>
+      <c r="E53" s="175"/>
+      <c r="F53" s="175"/>
+      <c r="G53" s="175"/>
     </row>
     <row r="54" spans="2:7" ht="39" customHeight="1">
-      <c r="B54" s="164"/>
-      <c r="C54" s="164"/>
-      <c r="D54" s="166"/>
-      <c r="E54" s="166"/>
-      <c r="F54" s="166"/>
-      <c r="G54" s="166"/>
+      <c r="B54" s="173"/>
+      <c r="C54" s="173"/>
+      <c r="D54" s="175"/>
+      <c r="E54" s="175"/>
+      <c r="F54" s="175"/>
+      <c r="G54" s="175"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="56" spans="2:7" ht="15.75" customHeight="1"/>
@@ -4984,38 +4983,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR34"/>
   <sheetViews>
     <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" style="58" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="60" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="58" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="60" customWidth="1"/>
     <col min="4" max="4" width="16" style="60" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
-    <col min="7" max="7" width="31.109375" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" style="61" customWidth="1"/>
-    <col min="9" max="9" width="45.21875" style="54" customWidth="1"/>
-    <col min="10" max="10" width="19.88671875" style="62" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="19.21875" style="57" customWidth="1"/>
-    <col min="13" max="13" width="95.6640625" customWidth="1"/>
-    <col min="14" max="14" width="67.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="61" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="54" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="62" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="57" customWidth="1"/>
+    <col min="13" max="13" width="95.7109375" customWidth="1"/>
+    <col min="14" max="14" width="67.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="108" customFormat="1" ht="49.8" customHeight="1" thickBot="1">
-      <c r="A1" s="177" cm="1">
+    <row r="1" spans="1:44" s="108" customFormat="1" ht="49.9" customHeight="1" thickBot="1">
+      <c r="A1" s="186" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">+#REF!+1:24+1:27+1+1:27</f>
         <v>0</v>
       </c>
-      <c r="B1" s="177"/>
+      <c r="B1" s="186"/>
       <c r="C1" s="100" t="s">
         <v>106</v>
       </c>
@@ -5031,10 +5030,10 @@
       <c r="I1" s="104"/>
       <c r="J1" s="105"/>
       <c r="K1" s="106"/>
-      <c r="L1" s="178" t="s">
+      <c r="L1" s="187" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="178"/>
+      <c r="M1" s="187"/>
       <c r="N1" s="107"/>
       <c r="O1" s="107"/>
       <c r="P1" s="107"/>
@@ -5052,13 +5051,13 @@
       <c r="AB1" s="107"/>
       <c r="AC1" s="107"/>
     </row>
-    <row r="2" spans="1:44" s="108" customFormat="1" ht="68.400000000000006" customHeight="1" thickBot="1">
-      <c r="A2" s="177" t="s">
+    <row r="2" spans="1:44" s="108" customFormat="1" ht="68.45" customHeight="1" thickBot="1">
+      <c r="A2" s="186" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="177"/>
+      <c r="B2" s="186"/>
       <c r="C2" s="109" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D2" s="110" t="s">
         <v>50</v>
@@ -5096,16 +5095,18 @@
       <c r="AB2" s="107"/>
       <c r="AC2" s="107"/>
     </row>
-    <row r="3" spans="1:44" s="108" customFormat="1" ht="49.8" customHeight="1" thickBot="1">
-      <c r="A3" s="177" t="s">
+    <row r="3" spans="1:44" s="108" customFormat="1" ht="49.9" customHeight="1" thickBot="1">
+      <c r="A3" s="186" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="177"/>
+      <c r="B3" s="186"/>
       <c r="C3" s="109"/>
       <c r="D3" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="111"/>
+      <c r="E3" s="111" t="s">
+        <v>107</v>
+      </c>
       <c r="F3" s="115" t="s">
         <v>54</v>
       </c>
@@ -5138,16 +5139,18 @@
       <c r="AB3" s="107"/>
       <c r="AC3" s="107"/>
     </row>
-    <row r="4" spans="1:44" s="108" customFormat="1" ht="49.8" customHeight="1" thickBot="1">
-      <c r="A4" s="177" t="s">
+    <row r="4" spans="1:44" s="108" customFormat="1" ht="49.9" customHeight="1" thickBot="1">
+      <c r="A4" s="186" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="177"/>
+      <c r="B4" s="186"/>
       <c r="C4" s="109"/>
       <c r="D4" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="111"/>
+      <c r="E4" s="111" t="s">
+        <v>107</v>
+      </c>
       <c r="F4" s="115" t="s">
         <v>57</v>
       </c>
@@ -5180,18 +5183,18 @@
       <c r="AB4" s="107"/>
       <c r="AC4" s="107"/>
     </row>
-    <row r="5" spans="1:44" s="160" customFormat="1" ht="49.8" customHeight="1" thickBot="1">
-      <c r="A5" s="179" t="s">
+    <row r="5" spans="1:44" s="160" customFormat="1" ht="49.9" customHeight="1" thickBot="1">
+      <c r="A5" s="188" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="179"/>
-      <c r="C5" s="180" t="s">
+      <c r="B5" s="188"/>
+      <c r="C5" s="189" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="190"/>
       <c r="H5" s="155"/>
       <c r="I5" s="155"/>
       <c r="J5" s="156"/>
@@ -5203,39 +5206,39 @@
         <f>COUNTIF(L7:L102, "Out of Scope")</f>
         <v>0</v>
       </c>
-      <c r="N5" s="194"/>
-      <c r="O5" s="194"/>
-      <c r="P5" s="194"/>
-      <c r="Q5" s="194"/>
-      <c r="R5" s="194"/>
-      <c r="S5" s="194"/>
-      <c r="T5" s="194"/>
-      <c r="U5" s="194"/>
-      <c r="V5" s="194"/>
-      <c r="W5" s="194"/>
-      <c r="X5" s="194"/>
-      <c r="Y5" s="194"/>
-      <c r="Z5" s="194"/>
-      <c r="AA5" s="194"/>
-      <c r="AB5" s="194"/>
-      <c r="AC5" s="194"/>
-      <c r="AD5" s="195"/>
-      <c r="AE5" s="195"/>
-      <c r="AF5" s="195"/>
-      <c r="AG5" s="195"/>
-      <c r="AH5" s="195"/>
-      <c r="AI5" s="195"/>
-      <c r="AJ5" s="195"/>
-      <c r="AK5" s="195"/>
-      <c r="AL5" s="195"/>
-      <c r="AM5" s="195"/>
-      <c r="AN5" s="195"/>
-      <c r="AO5" s="195"/>
-      <c r="AP5" s="195"/>
-      <c r="AQ5" s="195"/>
-      <c r="AR5" s="195"/>
-    </row>
-    <row r="6" spans="1:44" s="108" customFormat="1" ht="49.8" customHeight="1">
+      <c r="N5" s="161"/>
+      <c r="O5" s="161"/>
+      <c r="P5" s="161"/>
+      <c r="Q5" s="161"/>
+      <c r="R5" s="161"/>
+      <c r="S5" s="161"/>
+      <c r="T5" s="161"/>
+      <c r="U5" s="161"/>
+      <c r="V5" s="161"/>
+      <c r="W5" s="161"/>
+      <c r="X5" s="161"/>
+      <c r="Y5" s="161"/>
+      <c r="Z5" s="161"/>
+      <c r="AA5" s="161"/>
+      <c r="AB5" s="161"/>
+      <c r="AC5" s="161"/>
+      <c r="AD5" s="162"/>
+      <c r="AE5" s="162"/>
+      <c r="AF5" s="162"/>
+      <c r="AG5" s="162"/>
+      <c r="AH5" s="162"/>
+      <c r="AI5" s="162"/>
+      <c r="AJ5" s="162"/>
+      <c r="AK5" s="162"/>
+      <c r="AL5" s="162"/>
+      <c r="AM5" s="162"/>
+      <c r="AN5" s="162"/>
+      <c r="AO5" s="162"/>
+      <c r="AP5" s="162"/>
+      <c r="AQ5" s="162"/>
+      <c r="AR5" s="162"/>
+    </row>
+    <row r="6" spans="1:44" s="108" customFormat="1" ht="49.9" customHeight="1">
       <c r="A6" s="118"/>
       <c r="B6" s="105"/>
       <c r="C6" s="119"/>
@@ -5254,39 +5257,39 @@
         <f>SUM(M2:M5)</f>
         <v>20</v>
       </c>
-      <c r="N6" s="196"/>
-      <c r="O6" s="196"/>
-      <c r="P6" s="196"/>
-      <c r="Q6" s="196"/>
-      <c r="R6" s="196"/>
-      <c r="S6" s="196"/>
-      <c r="T6" s="196"/>
-      <c r="U6" s="196"/>
-      <c r="V6" s="196"/>
-      <c r="W6" s="196"/>
-      <c r="X6" s="196"/>
-      <c r="Y6" s="196"/>
-      <c r="Z6" s="196"/>
-      <c r="AA6" s="196"/>
-      <c r="AB6" s="196"/>
-      <c r="AC6" s="196"/>
-      <c r="AD6" s="197"/>
-      <c r="AE6" s="197"/>
-      <c r="AF6" s="197"/>
-      <c r="AG6" s="197"/>
-      <c r="AH6" s="197"/>
-      <c r="AI6" s="197"/>
-      <c r="AJ6" s="197"/>
-      <c r="AK6" s="197"/>
-      <c r="AL6" s="197"/>
-      <c r="AM6" s="197"/>
-      <c r="AN6" s="197"/>
-      <c r="AO6" s="197"/>
-      <c r="AP6" s="197"/>
-      <c r="AQ6" s="197"/>
-      <c r="AR6" s="197"/>
-    </row>
-    <row r="7" spans="1:44" s="144" customFormat="1" ht="52.8" customHeight="1" thickBot="1">
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="163"/>
+      <c r="Q6" s="163"/>
+      <c r="R6" s="163"/>
+      <c r="S6" s="163"/>
+      <c r="T6" s="163"/>
+      <c r="U6" s="163"/>
+      <c r="V6" s="163"/>
+      <c r="W6" s="163"/>
+      <c r="X6" s="163"/>
+      <c r="Y6" s="163"/>
+      <c r="Z6" s="163"/>
+      <c r="AA6" s="163"/>
+      <c r="AB6" s="163"/>
+      <c r="AC6" s="163"/>
+      <c r="AD6" s="164"/>
+      <c r="AE6" s="164"/>
+      <c r="AF6" s="164"/>
+      <c r="AG6" s="164"/>
+      <c r="AH6" s="164"/>
+      <c r="AI6" s="164"/>
+      <c r="AJ6" s="164"/>
+      <c r="AK6" s="164"/>
+      <c r="AL6" s="164"/>
+      <c r="AM6" s="164"/>
+      <c r="AN6" s="164"/>
+      <c r="AO6" s="164"/>
+      <c r="AP6" s="164"/>
+      <c r="AQ6" s="164"/>
+      <c r="AR6" s="164"/>
+    </row>
+    <row r="7" spans="1:44" s="144" customFormat="1" ht="52.9" customHeight="1" thickBot="1">
       <c r="A7" s="139" t="s">
         <v>60</v>
       </c>
@@ -5326,43 +5329,43 @@
       <c r="M7" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="N7" s="198"/>
-      <c r="O7" s="198"/>
-      <c r="P7" s="198"/>
-      <c r="Q7" s="198"/>
-      <c r="R7" s="198"/>
-      <c r="S7" s="198"/>
-      <c r="T7" s="198"/>
-      <c r="U7" s="198"/>
-      <c r="V7" s="198"/>
-      <c r="W7" s="198"/>
-      <c r="X7" s="198"/>
-      <c r="Y7" s="198"/>
-      <c r="Z7" s="198"/>
-      <c r="AA7" s="198"/>
-      <c r="AB7" s="198"/>
-      <c r="AC7" s="198"/>
-      <c r="AD7" s="198"/>
-      <c r="AE7" s="198"/>
-      <c r="AF7" s="198"/>
-      <c r="AG7" s="198"/>
-      <c r="AH7" s="198"/>
-      <c r="AI7" s="198"/>
-      <c r="AJ7" s="198"/>
-      <c r="AK7" s="198"/>
-      <c r="AL7" s="198"/>
-      <c r="AM7" s="198"/>
-      <c r="AN7" s="198"/>
-      <c r="AO7" s="198"/>
-      <c r="AP7" s="198"/>
-      <c r="AQ7" s="198"/>
-      <c r="AR7" s="198"/>
-    </row>
-    <row r="8" spans="1:44" s="88" customFormat="1" ht="67.8" customHeight="1" thickBot="1">
+      <c r="N7" s="165"/>
+      <c r="O7" s="165"/>
+      <c r="P7" s="165"/>
+      <c r="Q7" s="165"/>
+      <c r="R7" s="165"/>
+      <c r="S7" s="165"/>
+      <c r="T7" s="165"/>
+      <c r="U7" s="165"/>
+      <c r="V7" s="165"/>
+      <c r="W7" s="165"/>
+      <c r="X7" s="165"/>
+      <c r="Y7" s="165"/>
+      <c r="Z7" s="165"/>
+      <c r="AA7" s="165"/>
+      <c r="AB7" s="165"/>
+      <c r="AC7" s="165"/>
+      <c r="AD7" s="165"/>
+      <c r="AE7" s="165"/>
+      <c r="AF7" s="165"/>
+      <c r="AG7" s="165"/>
+      <c r="AH7" s="165"/>
+      <c r="AI7" s="165"/>
+      <c r="AJ7" s="165"/>
+      <c r="AK7" s="165"/>
+      <c r="AL7" s="165"/>
+      <c r="AM7" s="165"/>
+      <c r="AN7" s="165"/>
+      <c r="AO7" s="165"/>
+      <c r="AP7" s="165"/>
+      <c r="AQ7" s="165"/>
+      <c r="AR7" s="165"/>
+    </row>
+    <row r="8" spans="1:44" s="88" customFormat="1" ht="67.900000000000006" customHeight="1" thickBot="1">
       <c r="A8" s="78">
         <v>1</v>
       </c>
-      <c r="B8" s="184" t="s">
+      <c r="B8" s="193" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="79" t="s">
@@ -5413,7 +5416,7 @@
       <c r="A9" s="89">
         <v>2</v>
       </c>
-      <c r="B9" s="183"/>
+      <c r="B9" s="192"/>
       <c r="C9" s="90" t="s">
         <v>33</v>
       </c>
@@ -5462,11 +5465,11 @@
       <c r="A10" s="123">
         <v>3</v>
       </c>
-      <c r="B10" s="183"/>
+      <c r="B10" s="192"/>
       <c r="C10" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="199" t="s">
+      <c r="D10" s="166" t="s">
         <v>76</v>
       </c>
       <c r="E10" s="92" t="s">
@@ -5511,11 +5514,11 @@
       <c r="A11" s="126">
         <v>4</v>
       </c>
-      <c r="B11" s="183"/>
+      <c r="B11" s="192"/>
       <c r="C11" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="199" t="s">
+      <c r="D11" s="166" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="127" t="s">
@@ -5560,11 +5563,11 @@
       <c r="A12" s="123">
         <v>5</v>
       </c>
-      <c r="B12" s="183"/>
+      <c r="B12" s="192"/>
       <c r="C12" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="199" t="s">
+      <c r="D12" s="166" t="s">
         <v>76</v>
       </c>
       <c r="E12" s="133" t="s">
@@ -5605,16 +5608,16 @@
       <c r="AB12" s="98"/>
       <c r="AC12" s="98"/>
     </row>
-    <row r="13" spans="1:44" s="99" customFormat="1" ht="88.2" customHeight="1" thickBot="1">
+    <row r="13" spans="1:44" s="99" customFormat="1" ht="88.15" customHeight="1" thickBot="1">
       <c r="A13" s="123">
         <v>6</v>
       </c>
-      <c r="B13" s="183"/>
+      <c r="B13" s="192"/>
       <c r="C13" s="124" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E13" s="133" t="s">
         <v>140</v>
@@ -5656,31 +5659,31 @@
       <c r="AB13" s="98"/>
       <c r="AC13" s="98"/>
     </row>
-    <row r="14" spans="1:44" s="99" customFormat="1" ht="110.4" customHeight="1" thickBot="1">
+    <row r="14" spans="1:44" s="99" customFormat="1" ht="110.45" customHeight="1" thickBot="1">
       <c r="A14" s="123">
         <v>7</v>
       </c>
-      <c r="B14" s="183"/>
+      <c r="B14" s="192"/>
       <c r="C14" s="124" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E14" s="133" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F14" s="135" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G14" s="93" t="s">
         <v>132</v>
       </c>
       <c r="H14" s="94" t="s">
+        <v>265</v>
+      </c>
+      <c r="I14" s="94" t="s">
         <v>266</v>
-      </c>
-      <c r="I14" s="94" t="s">
-        <v>267</v>
       </c>
       <c r="J14" s="136"/>
       <c r="K14" s="93"/>
@@ -5705,22 +5708,22 @@
       <c r="AB14" s="98"/>
       <c r="AC14" s="98"/>
     </row>
-    <row r="15" spans="1:44" s="99" customFormat="1" ht="89.4" customHeight="1" thickBot="1">
+    <row r="15" spans="1:44" s="99" customFormat="1" ht="89.45" customHeight="1" thickBot="1">
       <c r="A15" s="123">
         <v>8</v>
       </c>
-      <c r="B15" s="183"/>
+      <c r="B15" s="192"/>
       <c r="C15" s="124" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="80" t="s">
+        <v>275</v>
+      </c>
+      <c r="E15" s="133" t="s">
         <v>276</v>
       </c>
-      <c r="E15" s="133" t="s">
+      <c r="F15" s="135" t="s">
         <v>277</v>
-      </c>
-      <c r="F15" s="135" t="s">
-        <v>278</v>
       </c>
       <c r="G15" s="93" t="s">
         <v>132</v>
@@ -5752,16 +5755,16 @@
       <c r="AB15" s="98"/>
       <c r="AC15" s="98"/>
     </row>
-    <row r="16" spans="1:44" s="99" customFormat="1" ht="110.4" customHeight="1" thickBot="1">
+    <row r="16" spans="1:44" s="99" customFormat="1" ht="110.45" customHeight="1" thickBot="1">
       <c r="A16" s="123">
         <v>9</v>
       </c>
-      <c r="B16" s="183"/>
+      <c r="B16" s="192"/>
       <c r="C16" s="124" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E16" s="133" t="s">
         <v>149</v>
@@ -5807,12 +5810,12 @@
       <c r="A17" s="123">
         <v>10</v>
       </c>
-      <c r="B17" s="183"/>
+      <c r="B17" s="192"/>
       <c r="C17" s="124" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E17" s="133" t="s">
         <v>125</v>
@@ -5858,7 +5861,7 @@
       <c r="A18" s="123">
         <v>11</v>
       </c>
-      <c r="B18" s="183"/>
+      <c r="B18" s="192"/>
       <c r="C18" s="124" t="s">
         <v>75</v>
       </c>
@@ -5903,11 +5906,11 @@
       <c r="AB18" s="98"/>
       <c r="AC18" s="98"/>
     </row>
-    <row r="19" spans="1:29" s="99" customFormat="1" ht="85.2" customHeight="1" thickBot="1">
+    <row r="19" spans="1:29" s="99" customFormat="1" ht="85.15" customHeight="1" thickBot="1">
       <c r="A19" s="123">
         <v>12</v>
       </c>
-      <c r="B19" s="185"/>
+      <c r="B19" s="194"/>
       <c r="C19" s="124" t="s">
         <v>75</v>
       </c>
@@ -5950,17 +5953,17 @@
       <c r="AB19" s="98"/>
       <c r="AC19" s="98"/>
     </row>
-    <row r="20" spans="1:29" s="99" customFormat="1" ht="64.8" customHeight="1" thickBot="1">
+    <row r="20" spans="1:29" s="99" customFormat="1" ht="64.900000000000006" customHeight="1" thickBot="1">
       <c r="A20" s="123">
         <v>13</v>
       </c>
-      <c r="B20" s="182" t="s">
+      <c r="B20" s="191" t="s">
         <v>129</v>
       </c>
       <c r="C20" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="199" t="s">
+      <c r="D20" s="166" t="s">
         <v>124</v>
       </c>
       <c r="E20" s="133" t="s">
@@ -5999,22 +6002,22 @@
       <c r="AB20" s="98"/>
       <c r="AC20" s="98"/>
     </row>
-    <row r="21" spans="1:29" s="99" customFormat="1" ht="64.8" customHeight="1" thickBot="1">
+    <row r="21" spans="1:29" s="99" customFormat="1" ht="64.900000000000006" customHeight="1" thickBot="1">
       <c r="A21" s="123">
         <v>14</v>
       </c>
-      <c r="B21" s="183"/>
+      <c r="B21" s="192"/>
       <c r="C21" s="124" t="s">
         <v>75</v>
       </c>
       <c r="D21" s="80" t="s">
+        <v>268</v>
+      </c>
+      <c r="E21" s="133" t="s">
         <v>269</v>
       </c>
-      <c r="E21" s="133" t="s">
+      <c r="F21" s="93" t="s">
         <v>270</v>
-      </c>
-      <c r="F21" s="93" t="s">
-        <v>271</v>
       </c>
       <c r="G21" s="93" t="s">
         <v>132</v>
@@ -6050,11 +6053,11 @@
       <c r="A22" s="123">
         <v>15</v>
       </c>
-      <c r="B22" s="183"/>
+      <c r="B22" s="192"/>
       <c r="C22" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="200" t="s">
+      <c r="D22" s="167" t="s">
         <v>138</v>
       </c>
       <c r="E22" s="133" t="s">
@@ -6095,17 +6098,17 @@
       <c r="AB22" s="98"/>
       <c r="AC22" s="98"/>
     </row>
-    <row r="23" spans="1:29" s="99" customFormat="1" ht="67.2" customHeight="1" thickBot="1">
+    <row r="23" spans="1:29" s="99" customFormat="1" ht="67.150000000000006" customHeight="1" thickBot="1">
       <c r="A23" s="123">
         <v>16</v>
       </c>
       <c r="B23" s="80" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C23" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="200" t="s">
+      <c r="D23" s="167" t="s">
         <v>154</v>
       </c>
       <c r="E23" s="133" t="s">
@@ -6144,31 +6147,31 @@
       <c r="AB23" s="98"/>
       <c r="AC23" s="98"/>
     </row>
-    <row r="24" spans="1:29" s="99" customFormat="1" ht="92.4" customHeight="1" thickBot="1">
+    <row r="24" spans="1:29" s="99" customFormat="1" ht="92.45" customHeight="1" thickBot="1">
       <c r="A24" s="123">
         <v>17</v>
       </c>
-      <c r="B24" s="182" t="s">
+      <c r="B24" s="191" t="s">
         <v>158</v>
       </c>
       <c r="C24" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="200" t="s">
+      <c r="D24" s="167" t="s">
+        <v>257</v>
+      </c>
+      <c r="E24" s="137" t="s">
         <v>258</v>
       </c>
-      <c r="E24" s="137" t="s">
-        <v>259</v>
-      </c>
       <c r="F24" s="135" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G24" s="93" t="s">
         <v>132</v>
       </c>
       <c r="H24" s="94"/>
       <c r="I24" s="94" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J24" s="93"/>
       <c r="K24" s="93"/>
@@ -6193,29 +6196,29 @@
       <c r="AB24" s="98"/>
       <c r="AC24" s="98"/>
     </row>
-    <row r="25" spans="1:29" s="99" customFormat="1" ht="92.4" customHeight="1" thickBot="1">
+    <row r="25" spans="1:29" s="99" customFormat="1" ht="92.45" customHeight="1" thickBot="1">
       <c r="A25" s="123">
         <v>18</v>
       </c>
-      <c r="B25" s="183"/>
+      <c r="B25" s="192"/>
       <c r="C25" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="200" t="s">
-        <v>251</v>
+      <c r="D25" s="167" t="s">
+        <v>250</v>
       </c>
       <c r="E25" s="137" t="s">
+        <v>254</v>
+      </c>
+      <c r="F25" s="135" t="s">
         <v>255</v>
-      </c>
-      <c r="F25" s="135" t="s">
-        <v>256</v>
       </c>
       <c r="G25" s="93" t="s">
         <v>132</v>
       </c>
       <c r="H25" s="94"/>
       <c r="I25" s="94" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J25" s="93"/>
       <c r="K25" s="93"/>
@@ -6240,29 +6243,29 @@
       <c r="AB25" s="98"/>
       <c r="AC25" s="98"/>
     </row>
-    <row r="26" spans="1:29" s="99" customFormat="1" ht="92.4" customHeight="1" thickBot="1">
+    <row r="26" spans="1:29" s="99" customFormat="1" ht="92.45" customHeight="1" thickBot="1">
       <c r="A26" s="123">
         <v>19</v>
       </c>
-      <c r="B26" s="183"/>
+      <c r="B26" s="192"/>
       <c r="C26" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="200" t="s">
+      <c r="D26" s="167" t="s">
+        <v>250</v>
+      </c>
+      <c r="E26" s="137" t="s">
+        <v>260</v>
+      </c>
+      <c r="F26" s="135" t="s">
         <v>251</v>
-      </c>
-      <c r="E26" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="F26" s="135" t="s">
-        <v>252</v>
       </c>
       <c r="G26" s="93" t="s">
         <v>132</v>
       </c>
       <c r="H26" s="94"/>
       <c r="I26" s="94" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J26" s="93"/>
       <c r="K26" s="93"/>
@@ -6287,29 +6290,29 @@
       <c r="AB26" s="98"/>
       <c r="AC26" s="98"/>
     </row>
-    <row r="27" spans="1:29" s="99" customFormat="1" ht="100.2" customHeight="1" thickBot="1">
+    <row r="27" spans="1:29" s="99" customFormat="1" ht="100.15" customHeight="1" thickBot="1">
       <c r="A27" s="123">
         <v>20</v>
       </c>
-      <c r="B27" s="185"/>
+      <c r="B27" s="194"/>
       <c r="C27" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="201" t="s">
-        <v>251</v>
+      <c r="D27" s="168" t="s">
+        <v>250</v>
       </c>
       <c r="E27" s="138" t="s">
+        <v>262</v>
+      </c>
+      <c r="F27" s="134" t="s">
         <v>263</v>
-      </c>
-      <c r="F27" s="134" t="s">
-        <v>264</v>
       </c>
       <c r="G27" s="134" t="s">
         <v>132</v>
       </c>
       <c r="H27" s="129"/>
       <c r="I27" s="129" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J27" s="134"/>
       <c r="K27" s="134"/>
@@ -6338,7 +6341,7 @@
       <c r="A28" s="40"/>
       <c r="B28" s="39"/>
       <c r="C28" s="59"/>
-      <c r="D28" s="202"/>
+      <c r="D28" s="169"/>
       <c r="E28" s="36"/>
       <c r="F28" s="35"/>
       <c r="G28" s="37"/>
@@ -6369,7 +6372,7 @@
       <c r="A29" s="40"/>
       <c r="B29" s="39"/>
       <c r="C29" s="59"/>
-      <c r="D29" s="202"/>
+      <c r="D29" s="169"/>
       <c r="E29" s="36"/>
       <c r="F29" s="35"/>
       <c r="G29" s="37"/>
@@ -6400,7 +6403,7 @@
       <c r="A30" s="40"/>
       <c r="B30" s="39"/>
       <c r="C30" s="59"/>
-      <c r="D30" s="202"/>
+      <c r="D30" s="169"/>
       <c r="E30" s="36"/>
       <c r="F30" s="35"/>
       <c r="G30" s="37"/>
@@ -6431,7 +6434,7 @@
       <c r="A31" s="40"/>
       <c r="B31" s="39"/>
       <c r="C31" s="59"/>
-      <c r="D31" s="202"/>
+      <c r="D31" s="169"/>
       <c r="E31" s="38"/>
       <c r="F31" s="35"/>
       <c r="G31" s="37"/>
@@ -6462,7 +6465,7 @@
       <c r="A32" s="40"/>
       <c r="B32" s="39"/>
       <c r="C32" s="59"/>
-      <c r="D32" s="202"/>
+      <c r="D32" s="169"/>
       <c r="E32" s="41"/>
       <c r="F32" s="35"/>
       <c r="G32" s="37"/>
@@ -6493,7 +6496,7 @@
       <c r="A33" s="40"/>
       <c r="B33" s="39"/>
       <c r="C33" s="59"/>
-      <c r="D33" s="202"/>
+      <c r="D33" s="169"/>
       <c r="E33" s="41"/>
       <c r="F33" s="35"/>
       <c r="G33" s="37"/>
@@ -6524,7 +6527,7 @@
       <c r="A34" s="40"/>
       <c r="B34" s="39"/>
       <c r="C34" s="59"/>
-      <c r="D34" s="202"/>
+      <c r="D34" s="169"/>
       <c r="E34" s="41"/>
       <c r="F34" s="35"/>
       <c r="G34" s="37"/>
@@ -6605,17 +6608,17 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="L8:L34" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="L8:L34">
       <formula1>"Passed,Failed,Not Executed,Out of Scope"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H17" r:id="rId1" xr:uid="{CDA83A3F-4E8F-48E1-BA3E-BFEA6C649DA0}"/>
-    <hyperlink ref="J18" r:id="rId2" xr:uid="{26209E7B-715E-4848-8BB2-8B8450E34965}"/>
-    <hyperlink ref="J17" r:id="rId3" xr:uid="{CB05751F-1B17-467A-83C1-85425235BB52}"/>
-    <hyperlink ref="J16" r:id="rId4" xr:uid="{F01943A1-BF7C-4B14-AC72-5FD6B0ABC4BA}"/>
-    <hyperlink ref="J13" r:id="rId5" xr:uid="{695E0FA3-1BB0-4313-87A6-3025AF53801B}"/>
+    <hyperlink ref="H17" r:id="rId1"/>
+    <hyperlink ref="J18" r:id="rId2"/>
+    <hyperlink ref="J17" r:id="rId3"/>
+    <hyperlink ref="J16" r:id="rId4"/>
+    <hyperlink ref="J13" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
@@ -6623,148 +6626,149 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L19"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9:L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="39.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="45.109375" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
-    <col min="8" max="8" width="40.88671875" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" customWidth="1"/>
-    <col min="11" max="11" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="45.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="40.85546875" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="11" max="11" width="41.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="14.4" thickBot="1"/>
+    <row r="2" spans="2:12" ht="13.5" thickBot="1"/>
     <row r="3" spans="2:12" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B3" s="191" t="s">
+      <c r="B3" s="200" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="186"/>
-      <c r="E3" s="186" t="s">
+      <c r="C3" s="195"/>
+      <c r="E3" s="195" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="186"/>
-      <c r="H3" s="186" t="s">
+      <c r="F3" s="195"/>
+      <c r="H3" s="195" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="186"/>
-      <c r="K3" s="186" t="s">
+      <c r="I3" s="195"/>
+      <c r="K3" s="195" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="186"/>
-    </row>
-    <row r="4" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B4" s="186"/>
-      <c r="C4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
-      <c r="H4" s="186"/>
-      <c r="I4" s="186"/>
-      <c r="K4" s="186"/>
-      <c r="L4" s="186"/>
-    </row>
-    <row r="5" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B5" s="186"/>
-      <c r="C5" s="186"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="186"/>
-      <c r="K5" s="186"/>
-      <c r="L5" s="186"/>
-    </row>
-    <row r="6" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B6" s="186"/>
-      <c r="C6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
-      <c r="K6" s="186"/>
-      <c r="L6" s="186"/>
+      <c r="L3" s="195"/>
+    </row>
+    <row r="4" spans="2:12" ht="14.45" customHeight="1" thickBot="1">
+      <c r="B4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
+      <c r="H4" s="195"/>
+      <c r="I4" s="195"/>
+      <c r="K4" s="195"/>
+      <c r="L4" s="195"/>
+    </row>
+    <row r="5" spans="2:12" ht="14.45" customHeight="1" thickBot="1">
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
+      <c r="H5" s="195"/>
+      <c r="I5" s="195"/>
+      <c r="K5" s="195"/>
+      <c r="L5" s="195"/>
+    </row>
+    <row r="6" spans="2:12" ht="14.45" customHeight="1" thickBot="1">
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="195"/>
+      <c r="K6" s="195"/>
+      <c r="L6" s="195"/>
     </row>
     <row r="7" spans="2:12" s="145" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="187" t="s">
+      <c r="B7" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C7" s="187"/>
-      <c r="E7" s="187" t="s">
+      <c r="C7" s="196"/>
+      <c r="E7" s="196" t="s">
         <v>224</v>
       </c>
-      <c r="F7" s="187"/>
-      <c r="H7" s="187" t="s">
+      <c r="F7" s="196"/>
+      <c r="H7" s="196" t="s">
         <v>225</v>
       </c>
-      <c r="I7" s="187"/>
-      <c r="K7" s="187" t="s">
+      <c r="I7" s="196"/>
+      <c r="K7" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="L7" s="187"/>
+      <c r="L7" s="196"/>
     </row>
     <row r="8" spans="2:12" s="145" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B8" s="187"/>
-      <c r="C8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="187"/>
-      <c r="K8" s="187"/>
-      <c r="L8" s="187"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="H8" s="196"/>
+      <c r="I8" s="196"/>
+      <c r="K8" s="196"/>
+      <c r="L8" s="196"/>
     </row>
     <row r="9" spans="2:12" s="145" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B9" s="192" t="s">
+      <c r="B9" s="201" t="s">
         <v>234</v>
       </c>
-      <c r="C9" s="188"/>
-      <c r="E9" s="188" t="s">
+      <c r="C9" s="197"/>
+      <c r="E9" s="197" t="s">
         <v>235</v>
       </c>
-      <c r="F9" s="188"/>
-      <c r="H9" s="188" t="s">
+      <c r="F9" s="197"/>
+      <c r="H9" s="197" t="s">
         <v>236</v>
       </c>
-      <c r="I9" s="188"/>
-      <c r="K9" s="188" t="s">
+      <c r="I9" s="197"/>
+      <c r="K9" s="197" t="s">
         <v>237</v>
       </c>
-      <c r="L9" s="188"/>
+      <c r="L9" s="197"/>
     </row>
     <row r="10" spans="2:12" s="145" customFormat="1" ht="21" customHeight="1">
-      <c r="B10" s="188"/>
-      <c r="C10" s="188"/>
-      <c r="E10" s="188"/>
-      <c r="F10" s="188"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="188"/>
-      <c r="K10" s="188"/>
-      <c r="L10" s="188"/>
+      <c r="B10" s="197"/>
+      <c r="C10" s="197"/>
+      <c r="E10" s="197"/>
+      <c r="F10" s="197"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="197"/>
+      <c r="K10" s="197"/>
+      <c r="L10" s="197"/>
     </row>
     <row r="11" spans="2:12" s="145" customFormat="1" ht="21" customHeight="1">
-      <c r="B11" s="189" t="s">
+      <c r="B11" s="198" t="s">
         <v>238</v>
       </c>
-      <c r="C11" s="190"/>
-      <c r="E11" s="189" t="s">
+      <c r="C11" s="199"/>
+      <c r="E11" s="198" t="s">
         <v>239</v>
       </c>
-      <c r="F11" s="190"/>
-      <c r="H11" s="189" t="s">
+      <c r="F11" s="199"/>
+      <c r="H11" s="198" t="s">
         <v>240</v>
       </c>
-      <c r="I11" s="190"/>
-      <c r="K11" s="189" t="s">
+      <c r="I11" s="199"/>
+      <c r="K11" s="198" t="s">
         <v>241</v>
       </c>
-      <c r="L11" s="190"/>
-    </row>
-    <row r="12" spans="2:12" s="145" customFormat="1" ht="38.4" customHeight="1">
+      <c r="L11" s="199"/>
+    </row>
+    <row r="12" spans="2:12" s="145" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="B12" s="148" t="s">
         <v>242</v>
       </c>
@@ -6778,29 +6782,29 @@
       </c>
       <c r="I12" s="147"/>
       <c r="K12" s="146" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="L12" s="147"/>
     </row>
     <row r="13" spans="2:12" s="145" customFormat="1" ht="21" customHeight="1">
-      <c r="B13" s="188" t="s">
+      <c r="B13" s="197" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="188"/>
-      <c r="E13" s="188" t="s">
+      <c r="C13" s="197"/>
+      <c r="E13" s="197" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="188"/>
-      <c r="H13" s="188" t="s">
+      <c r="F13" s="197"/>
+      <c r="H13" s="197" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="188"/>
-      <c r="K13" s="188" t="s">
+      <c r="I13" s="197"/>
+      <c r="K13" s="197" t="s">
         <v>80</v>
       </c>
-      <c r="L13" s="188"/>
-    </row>
-    <row r="14" spans="2:12" s="145" customFormat="1" ht="89.4" customHeight="1">
+      <c r="L13" s="197"/>
+    </row>
+    <row r="14" spans="2:12" s="145" customFormat="1" ht="89.45" customHeight="1">
       <c r="B14" s="149" t="s">
         <v>144</v>
       </c>
@@ -6820,55 +6824,55 @@
     </row>
     <row r="15" spans="2:12" s="145" customFormat="1" ht="27" customHeight="1">
       <c r="B15" s="146" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C15" s="150"/>
       <c r="E15" s="146" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F15" s="150"/>
       <c r="H15" s="146" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I15" s="150"/>
       <c r="K15" s="146" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L15" s="150"/>
     </row>
     <row r="16" spans="2:12" s="145" customFormat="1" ht="27" customHeight="1">
       <c r="B16" s="151" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C16" s="150"/>
       <c r="E16" s="151" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F16" s="150"/>
       <c r="H16" s="151" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I16" s="150"/>
       <c r="K16" s="151" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L16" s="150"/>
     </row>
     <row r="17" spans="2:12" s="145" customFormat="1" ht="27" customHeight="1">
       <c r="B17" s="151" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C17" s="150"/>
       <c r="E17" s="151" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F17" s="150"/>
       <c r="H17" s="151" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I17" s="150"/>
       <c r="K17" s="151" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L17" s="150"/>
     </row>
@@ -6892,19 +6896,19 @@
     </row>
     <row r="19" spans="2:12" s="145" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="B19" s="153" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C19" s="154"/>
       <c r="E19" s="153" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F19" s="154"/>
       <c r="H19" s="153" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I19" s="154"/>
       <c r="K19" s="153" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L19" s="154"/>
     </row>
@@ -6932,10 +6936,10 @@
     <mergeCell ref="H9:I10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" display="Screenshot: Invalid email address error" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="E18" r:id="rId2" display="Screenshot: Invalid email address error" xr:uid="{17D24A89-5F60-43EA-A6ED-1492E9D9D025}"/>
-    <hyperlink ref="H18" r:id="rId3" display="Screenshot: Invalid email address error" xr:uid="{94611DDC-0186-4B28-9FC7-E292ACBF4238}"/>
-    <hyperlink ref="K18" r:id="rId4" display="Screenshot: Invalid email address error" xr:uid="{CCB8AC22-22E6-4236-A5AC-2AA0D1115CB7}"/>
+    <hyperlink ref="B18" r:id="rId1" display="Screenshot: Invalid email address error"/>
+    <hyperlink ref="E18" r:id="rId2" display="Screenshot: Invalid email address error"/>
+    <hyperlink ref="H18" r:id="rId3" display="Screenshot: Invalid email address error"/>
+    <hyperlink ref="K18" r:id="rId4" display="Screenshot: Invalid email address error"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
@@ -6943,38 +6947,38 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H49"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.77734375" customWidth="1"/>
-    <col min="4" max="4" width="59.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="59.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="202" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
     </row>
     <row r="4" spans="2:8" ht="45.75" customHeight="1">
-      <c r="B4" s="193"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
       <c r="F4" s="43"/>
       <c r="G4" s="43"/>
       <c r="H4" s="43"/>
@@ -7004,7 +7008,7 @@
         <v>85</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="2:8" s="46" customFormat="1" ht="29.25" customHeight="1">
@@ -7018,7 +7022,7 @@
         <v>87</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="2:8" s="52" customFormat="1" ht="27.75" customHeight="1">
@@ -7032,7 +7036,7 @@
         <v>89</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="2:8" s="52" customFormat="1" ht="29.25" customHeight="1">
@@ -7046,7 +7050,7 @@
         <v>91</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="2:8" s="52" customFormat="1" ht="28.5" customHeight="1">
@@ -7060,7 +7064,7 @@
         <v>93</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="2:8" s="52" customFormat="1" ht="27.75" customHeight="1">
